--- a/biology/Botanique/Rambour/Rambour.xlsx
+++ b/biology/Botanique/Rambour/Rambour.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rambour est le nom de nombreuses variétés anciennes de pommes.
 </t>
@@ -511,10 +523,12 @@
           <t>Origine et historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le botaniste Jean Ruel fut, en 1535, celui qui, le premier, décrivit, dans son de natura stirpium, une pomme de ce nom[1],[2].
-La variété Rambure d'été tirait sa dénomination de Rambures, localité située à seize kilomètres d'Abbeville (Somme). Vers 1610, un vice de prononciation modifia légèrement le nom de la pomme de Rambures : on le prononça et on l'écrivit Rambour, et l'usage a formellement consacré ce barbarisme[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le botaniste Jean Ruel fut, en 1535, celui qui, le premier, décrivit, dans son de natura stirpium, une pomme de ce nom,.
+La variété Rambure d'été tirait sa dénomination de Rambures, localité située à seize kilomètres d'Abbeville (Somme). Vers 1610, un vice de prononciation modifia légèrement le nom de la pomme de Rambures : on le prononça et on l'écrivit Rambour, et l'usage a formellement consacré ce barbarisme.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Les différents types de Rambour</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rambour d'été, aussi appelée Rambour aigre, Rambour blanc, Rambour de Lorraine, Müschen's Rosenapfel, ou de Rambure.
 Rambour d'hiver, Rambour doux, Rambour rouge ou Rambour d'hiver du Rhin (triploïde).
@@ -552,7 +568,7 @@
 Rambour d'Automne (diploïde).
 Rambour de Flandre (aussi appelée Rambour rose ou Rambour rouge de Namur).
 Rambour vert.
-Rambour franc[3].
+Rambour franc.
 Rambour des Flandres,
 Rambour de Pleissen.</t>
         </is>
